--- a/Textbook Companion/Chapter42-Part2/Templates/Boxplottemp.xlsx
+++ b/Textbook Companion/Chapter42-Part2/Templates/Boxplottemp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\Chapter42descstats\Companion Content\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter42-Part2\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boxplot" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Boxplot!$A$8:$A$373</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Boxplot!$B$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Boxplot!$B$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Boxplot!$B$8:$B$373</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Boxplot!$B$8:$B$373</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Boxplot!$A$8:$A$373</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Boxplot!$B$7</definedName>
@@ -26,11 +24,10 @@
     <definedName name="_xlchart.v1.6" hidden="1">Boxplot!$A$8:$A$373</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Boxplot!$B$7</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Boxplot!$B$8:$B$373</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Boxplot!$A$8:$A$373</definedName>
     <definedName name="Jan">Boxplot!$B$8:$B$38</definedName>
     <definedName name="march">Boxplot!$B$68:$B$98</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
+  <calcPr calcId="171027" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="24">
   <si>
     <t>Month</t>
   </si>
@@ -83,11 +80,41 @@
   <si>
     <t>Dec</t>
   </si>
+  <si>
+    <t>Jan Median</t>
+  </si>
+  <si>
+    <t>Jan Mean</t>
+  </si>
+  <si>
+    <t>Jan 25%ile</t>
+  </si>
+  <si>
+    <t>Jan 75%ile</t>
+  </si>
+  <si>
+    <t>Jan Max</t>
+  </si>
+  <si>
+    <t>Jan Min</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Upper Outlier Cutoff</t>
+  </si>
+  <si>
+    <t>Lower Outlier Cutoff</t>
+  </si>
+  <si>
+    <t>1.5*IQR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,6 +170,691 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FE53C7C7-A15E-487D-8EBD-843B79C6B948}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>Number</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84138</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D14D11-939C-4CFA-A031-379D5E4D492E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2468563" y="1341438"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,19 +1119,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A7:B373"/>
+  <dimension ref="A7:I373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +1218,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -510,7 +1226,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,7 +1234,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,7 +1242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +1250,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +1258,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,55 +1274,109 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <f>MEDIAN(Jan)</f>
+        <v>211</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F24)</f>
+        <v>=MEDIAN(Jan)</v>
+      </c>
+      <c r="H24" s="1">
+        <f>_xlfn.QUARTILE.EXC(Jan,2)</f>
+        <v>211</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(H24)</f>
+        <v>=QUARTILE.EXC(Jan,2)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1">
+        <f>AVERAGE(Jan)</f>
+        <v>201.16129032258064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <f>_xlfn.QUARTILE.EXC(Jan,1)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1">
+        <f>_xlfn.QUARTILE.EXC(Jan,3)</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1">
+        <f>MAX(Jan)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>337</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1">
+        <f>MIN(Jan)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,39 +1384,67 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <f>F27-F26</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1">
+        <f>1.5*F31</f>
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1">
+        <f>F27+F32</f>
+        <v>585.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1">
         <v>355</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="1">
+        <f>F26-F32</f>
+        <v>-162.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -654,7 +1452,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -662,7 +1460,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +1468,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -678,7 +1476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -686,7 +1484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -694,7 +1492,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -702,7 +1500,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,7 +1508,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,7 +1516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -726,7 +1524,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,7 +1532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +1540,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +1548,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -3362,5 +4160,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="12" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>